--- a/fuentes/contenidos/grado06/guion05/Escaleta_CS_06_05_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion05/Escaleta_CS_06_05_CO.xlsx
@@ -1,27 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCMarquez\Desktop\Escaletas ajustadas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="4950" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="4950"/>
   </bookViews>
   <sheets>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$42</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="234">
   <si>
     <t>Asignatura</t>
   </si>
@@ -224,57 +221,9 @@
     <t>f13b</t>
   </si>
   <si>
-    <t>M6A</t>
-  </si>
-  <si>
-    <t>M6B</t>
-  </si>
-  <si>
-    <t>M7A</t>
-  </si>
-  <si>
-    <t>M8A</t>
-  </si>
-  <si>
-    <t>M9B</t>
-  </si>
-  <si>
-    <t>M9C</t>
-  </si>
-  <si>
     <t>M10A</t>
   </si>
   <si>
-    <t>M10B</t>
-  </si>
-  <si>
-    <t>M11A</t>
-  </si>
-  <si>
-    <t>M12A</t>
-  </si>
-  <si>
-    <t>M12B</t>
-  </si>
-  <si>
-    <t>M12C</t>
-  </si>
-  <si>
-    <t>M12D</t>
-  </si>
-  <si>
-    <t>M13A</t>
-  </si>
-  <si>
-    <t>M13B</t>
-  </si>
-  <si>
-    <t>M14A</t>
-  </si>
-  <si>
-    <t>M15A</t>
-  </si>
-  <si>
     <t>M101A</t>
   </si>
   <si>
@@ -305,49 +254,25 @@
     <t>M</t>
   </si>
   <si>
-    <t>M1A</t>
-  </si>
-  <si>
     <t>M1B</t>
   </si>
   <si>
     <t>M1C</t>
   </si>
   <si>
-    <t>M1D</t>
-  </si>
-  <si>
     <t>M2A</t>
   </si>
   <si>
     <t>M2B</t>
   </si>
   <si>
-    <t>M3A</t>
-  </si>
-  <si>
     <t>M2C</t>
   </si>
   <si>
-    <t>M3B</t>
-  </si>
-  <si>
-    <t>M3B1</t>
-  </si>
-  <si>
     <t>M4A</t>
   </si>
   <si>
     <t>M5A</t>
-  </si>
-  <si>
-    <t>M5B</t>
-  </si>
-  <si>
-    <t>M5C</t>
-  </si>
-  <si>
-    <t>M5D</t>
   </si>
   <si>
     <t>Fichas</t>
@@ -375,12 +300,6 @@
 Si/No</t>
   </si>
   <si>
-    <t>FQ_10_13_08</t>
-  </si>
-  <si>
-    <t>TC_10_03_07</t>
-  </si>
-  <si>
     <t>DIAP f1</t>
   </si>
   <si>
@@ -537,9 +456,6 @@
     <t>Preguntas Banco de actividades</t>
   </si>
   <si>
-    <t>Se incluyen cuatro videos de GEH</t>
-  </si>
-  <si>
     <t>Secuencia de imágenes que presenta aspectos generales de las teorías del poblamiento de América</t>
   </si>
   <si>
@@ -648,9 +564,6 @@
     <t xml:space="preserve">VIDEO </t>
   </si>
   <si>
-    <t>Crear fichas para el estudiante y para el profesor</t>
-  </si>
-  <si>
     <t>Diez  preguntas con opciones de respuesta sobre los logros culturales de la civilización maya.</t>
   </si>
   <si>
@@ -669,9 +582,6 @@
     <t>Presentar los pueblos representativos y características destacadas de cada uno.</t>
   </si>
   <si>
-    <t>Crear fichas para el profesor y para el estudiante</t>
-  </si>
-  <si>
     <t>Escribir textos acerca de la sociedad, la economía y el gobierno inca.</t>
   </si>
   <si>
@@ -681,9 +591,6 @@
     <t>ACTIVIDAD</t>
   </si>
   <si>
-    <t>Diez  preguntas sobre aspectos destacados de la civilización inca</t>
-  </si>
-  <si>
     <t>F13</t>
   </si>
   <si>
@@ -750,9 +657,6 @@
     <t>Recurso F8-01</t>
   </si>
   <si>
-    <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idreg=7900&amp;ruta=Buscador</t>
-  </si>
-  <si>
     <t>Recurso M5A-01</t>
   </si>
   <si>
@@ -784,13 +688,51 @@
   </si>
   <si>
     <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Crear fichas para el estudiante y para el profesor
+http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idreg=7900&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>Recursos adicionales 01</t>
+  </si>
+  <si>
+    <t>Video como media principal - 01</t>
+  </si>
+  <si>
+    <t>RF_01_02_CO</t>
+  </si>
+  <si>
+    <t>Crear fichas para el estudiante y para el profesor 
+http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idreg=7900&amp;ruta=Buscado</t>
+  </si>
+  <si>
+    <t>Crear fichas para el profesor y para el estudiante
+http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=VI002110&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>Video como media principal - 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diez  preguntas sobre aspectos destacados de la civilización inca
+</t>
+  </si>
+  <si>
+    <t>Crear fichas para el estudiante y para el profesor
+http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=DI000438&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>Video como media principal - 04</t>
+  </si>
+  <si>
+    <t>Video como media principal - 02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,13 +819,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1008,9 +943,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1081,7 +1016,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,7 +1024,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,23 +1054,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,6 +1075,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1208,7 +1140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1243,7 +1175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1452,6 +1384,2194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.85546875" customWidth="1"/>
+    <col min="20" max="20" width="36" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="49"/>
+      <c r="O1" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+    </row>
+    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>6</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="22"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="22"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="22"/>
+    </row>
+    <row r="7" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="18">
+        <v>2</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>6</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="18">
+        <v>3</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>6</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="18">
+        <v>4</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>6</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="18">
+        <v>5</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>6</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="18">
+        <v>6</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>6</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S11" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="U11" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="18">
+        <v>7</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>6</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="U12" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="18">
+        <v>8</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="23"/>
+      <c r="O13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>6</v>
+      </c>
+      <c r="R13" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S13" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="U13" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="18">
+        <v>9</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="23"/>
+      <c r="O14" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>6</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="U14" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="18">
+        <v>10</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>6</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="U15" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="18">
+        <v>11</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="43">
+        <v>6</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="22"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="22"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="22"/>
+    </row>
+    <row r="21" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="18">
+        <v>12</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="23"/>
+      <c r="O21" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>6</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="18">
+        <v>13</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="27">
+        <v>6</v>
+      </c>
+      <c r="R22" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="S22" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="T22" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="U22" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="18">
+        <v>14</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="27">
+        <v>6</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="22"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="22"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+    </row>
+    <row r="27" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="18">
+        <v>15</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" s="23"/>
+      <c r="O27" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>6</v>
+      </c>
+      <c r="R27" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S27" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T27" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="18">
+        <v>16</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="23"/>
+      <c r="O28" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="27">
+        <v>6</v>
+      </c>
+      <c r="R28" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S28" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T28" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="U28" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="18">
+        <v>17</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N29" s="23"/>
+      <c r="O29" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="27">
+        <v>6</v>
+      </c>
+      <c r="R29" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S29" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T29" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="U29" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="18">
+        <v>18</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="43">
+        <v>6</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="S30" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="T30" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="U30" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="22"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="22"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="22"/>
+    </row>
+    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="18">
+        <v>19</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" s="23"/>
+      <c r="O34" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="27">
+        <v>6</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S34" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="U34" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="18">
+        <v>20</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N35" s="23"/>
+      <c r="O35" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="27">
+        <v>6</v>
+      </c>
+      <c r="R35" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S35" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T35" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="U35" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="18">
+        <v>21</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="27">
+        <v>6</v>
+      </c>
+      <c r="R36" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="S36" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="U36" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="18">
+        <v>22</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N37" s="18"/>
+      <c r="O37" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="27">
+        <v>6</v>
+      </c>
+      <c r="R37" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S37" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T37" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="U37" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="18">
+        <v>23</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="22"/>
+      <c r="K38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q38" s="27">
+        <v>6</v>
+      </c>
+      <c r="R38" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S38" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T38" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="U38" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="18">
+        <v>24</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="22"/>
+      <c r="K39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M39" s="23"/>
+      <c r="N39" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O39" s="21"/>
+      <c r="P39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="27">
+        <v>6</v>
+      </c>
+      <c r="R39" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="S39" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="T39" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="U39" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="18">
+        <v>25</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="22"/>
+      <c r="K40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M40" s="23"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="27"/>
+    </row>
+    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="18">
+        <v>26</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="22"/>
+      <c r="K41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="P41" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="27">
+        <v>6</v>
+      </c>
+      <c r="R41" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S41" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T41" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="U41" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" s="18">
+        <v>27</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="22"/>
+      <c r="K42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="18"/>
+      <c r="M42" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N42" s="23"/>
+      <c r="O42" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="P42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="27">
+        <v>6</v>
+      </c>
+      <c r="R42" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="S42" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="T42" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="U42" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1492,7 +3612,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2028,7 +4148,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2148,7 +4268,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -3409,2396 +5529,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U121"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q1" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-    </row>
-    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="27">
-        <v>6</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="22"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="22"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="22"/>
-    </row>
-    <row r="7" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="18">
-        <v>2</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>6</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="U7" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="18">
-        <v>3</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="27">
-        <v>6</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S8" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T8" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="U8" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="18">
-        <v>4</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="27">
-        <v>6</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="S9" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="T9" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="U9" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="18">
-        <v>5</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>6</v>
-      </c>
-      <c r="R10" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S10" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T10" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="U10" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="18">
-        <v>6</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>6</v>
-      </c>
-      <c r="R11" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S11" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T11" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="U11" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="18">
-        <v>7</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="27">
-        <v>6</v>
-      </c>
-      <c r="R12" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S12" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="T12" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="U12" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="18">
-        <v>8</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="27">
-        <v>6</v>
-      </c>
-      <c r="R13" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S13" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T13" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="U13" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="18">
-        <v>9</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="27">
-        <v>6</v>
-      </c>
-      <c r="R14" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S14" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T14" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="U14" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="18">
-        <v>10</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="27">
-        <v>6</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="T15" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="U15" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="18">
-        <v>11</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="22"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="22"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="22"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="22"/>
-    </row>
-    <row r="21" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="18">
-        <v>12</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="N21" s="23"/>
-      <c r="O21" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="27">
-        <v>6</v>
-      </c>
-      <c r="R21" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T21" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="U21" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="18">
-        <v>13</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="K22" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="22"/>
-    </row>
-    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="18">
-        <v>14</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="27">
-        <v>6</v>
-      </c>
-      <c r="R23" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="T23" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="U23" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="22"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="22"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-    </row>
-    <row r="27" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" s="18">
-        <v>15</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="K27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="27">
-        <v>6</v>
-      </c>
-      <c r="R27" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S27" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T27" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="U27" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H28" s="18">
-        <v>16</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="K28" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="N28" s="23"/>
-      <c r="O28" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="27">
-        <v>6</v>
-      </c>
-      <c r="R28" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T28" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="U28" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="18">
-        <v>17</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="K29" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M29" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="N29" s="23"/>
-      <c r="O29" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="P29" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="27">
-        <v>6</v>
-      </c>
-      <c r="R29" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S29" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T29" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="U29" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="18">
-        <v>18</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="K30" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="P30" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="22"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="22"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="22"/>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="22"/>
-    </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="18">
-        <v>19</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M34" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="P34" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="27">
-        <v>6</v>
-      </c>
-      <c r="R34" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S34" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T34" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="U34" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H35" s="18">
-        <v>20</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M35" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="27">
-        <v>6</v>
-      </c>
-      <c r="R35" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S35" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T35" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="U35" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="22"/>
-    </row>
-    <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H37" s="18">
-        <v>21</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="N37" s="18"/>
-      <c r="O37" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" s="27">
-        <v>6</v>
-      </c>
-      <c r="R37" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S37" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T37" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="U37" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H38" s="18">
-        <v>22</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" s="27">
-        <v>6</v>
-      </c>
-      <c r="R38" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S38" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T38" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="U38" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" s="18">
-        <v>23</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="O39" s="21"/>
-      <c r="P39" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39" s="27">
-        <v>6</v>
-      </c>
-      <c r="R39" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="S39" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="T39" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="U39" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H40" s="18">
-        <v>24</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="27"/>
-    </row>
-    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41" s="18">
-        <v>25</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="M41" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="N41" s="18"/>
-      <c r="O41" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="P41" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" s="27">
-        <v>6</v>
-      </c>
-      <c r="R41" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S41" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T41" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="U41" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H42" s="18">
-        <v>26</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="18"/>
-      <c r="M42" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="N42" s="18"/>
-      <c r="O42" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="P42" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="27">
-        <v>6</v>
-      </c>
-      <c r="R42" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S42" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="T42" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="U42" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-    </row>
-    <row r="44" spans="1:21" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="Q36" r:id="rId1"/>
-    <hyperlink ref="Q30" r:id="rId2"/>
-    <hyperlink ref="Q22" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-</worksheet>
 </file>
--- a/fuentes/contenidos/grado06/guion05/Escaleta_CS_06_05_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion05/Escaleta_CS_06_05_CO.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="4950" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$42</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="257">
   <si>
     <t>Asignatura</t>
   </si>
@@ -221,9 +218,57 @@
     <t>f13b</t>
   </si>
   <si>
+    <t>M6A</t>
+  </si>
+  <si>
+    <t>M6B</t>
+  </si>
+  <si>
+    <t>M7A</t>
+  </si>
+  <si>
+    <t>M8A</t>
+  </si>
+  <si>
+    <t>M9B</t>
+  </si>
+  <si>
+    <t>M9C</t>
+  </si>
+  <si>
     <t>M10A</t>
   </si>
   <si>
+    <t>M10B</t>
+  </si>
+  <si>
+    <t>M11A</t>
+  </si>
+  <si>
+    <t>M12A</t>
+  </si>
+  <si>
+    <t>M12B</t>
+  </si>
+  <si>
+    <t>M12C</t>
+  </si>
+  <si>
+    <t>M12D</t>
+  </si>
+  <si>
+    <t>M13A</t>
+  </si>
+  <si>
+    <t>M13B</t>
+  </si>
+  <si>
+    <t>M14A</t>
+  </si>
+  <si>
+    <t>M15A</t>
+  </si>
+  <si>
     <t>M101A</t>
   </si>
   <si>
@@ -254,25 +299,49 @@
     <t>M</t>
   </si>
   <si>
+    <t>M1A</t>
+  </si>
+  <si>
     <t>M1B</t>
   </si>
   <si>
     <t>M1C</t>
   </si>
   <si>
+    <t>M1D</t>
+  </si>
+  <si>
     <t>M2A</t>
   </si>
   <si>
     <t>M2B</t>
   </si>
   <si>
+    <t>M3A</t>
+  </si>
+  <si>
     <t>M2C</t>
   </si>
   <si>
+    <t>M3B</t>
+  </si>
+  <si>
+    <t>M3B1</t>
+  </si>
+  <si>
     <t>M4A</t>
   </si>
   <si>
     <t>M5A</t>
+  </si>
+  <si>
+    <t>M5B</t>
+  </si>
+  <si>
+    <t>M5C</t>
+  </si>
+  <si>
+    <t>M5D</t>
   </si>
   <si>
     <t>Fichas</t>
@@ -300,6 +369,12 @@
 Si/No</t>
   </si>
   <si>
+    <t>FQ_10_13_08</t>
+  </si>
+  <si>
+    <t>TC_10_03_07</t>
+  </si>
+  <si>
     <t>DIAP f1</t>
   </si>
   <si>
@@ -456,6 +531,9 @@
     <t>Preguntas Banco de actividades</t>
   </si>
   <si>
+    <t>Se incluyen cuatro videos de GEH</t>
+  </si>
+  <si>
     <t>Secuencia de imágenes que presenta aspectos generales de las teorías del poblamiento de América</t>
   </si>
   <si>
@@ -564,6 +642,9 @@
     <t xml:space="preserve">VIDEO </t>
   </si>
   <si>
+    <t>Crear fichas para el estudiante y para el profesor</t>
+  </si>
+  <si>
     <t>Diez  preguntas con opciones de respuesta sobre los logros culturales de la civilización maya.</t>
   </si>
   <si>
@@ -582,6 +663,9 @@
     <t>Presentar los pueblos representativos y características destacadas de cada uno.</t>
   </si>
   <si>
+    <t>Crear fichas para el profesor y para el estudiante</t>
+  </si>
+  <si>
     <t>Escribir textos acerca de la sociedad, la economía y el gobierno inca.</t>
   </si>
   <si>
@@ -591,6 +675,9 @@
     <t>ACTIVIDAD</t>
   </si>
   <si>
+    <t>Diez  preguntas sobre aspectos destacados de la civilización inca</t>
+  </si>
+  <si>
     <t>F13</t>
   </si>
   <si>
@@ -657,6 +744,9 @@
     <t>Recurso F8-01</t>
   </si>
   <si>
+    <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idreg=7900&amp;ruta=Buscador</t>
+  </si>
+  <si>
     <t>Recurso M5A-01</t>
   </si>
   <si>
@@ -690,49 +780,20 @@
     <t>Recurso M101AP-01</t>
   </si>
   <si>
-    <t>Crear fichas para el estudiante y para el profesor
-http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idreg=7900&amp;ruta=Buscador</t>
-  </si>
-  <si>
-    <t>Recursos adicionales 01</t>
-  </si>
-  <si>
-    <t>Video como media principal - 01</t>
-  </si>
-  <si>
-    <t>RF_01_02_CO</t>
-  </si>
-  <si>
-    <t>Crear fichas para el estudiante y para el profesor 
-http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idreg=7900&amp;ruta=Buscado</t>
-  </si>
-  <si>
-    <t>Crear fichas para el profesor y para el estudiante
-http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=VI002110&amp;ruta=Buscador</t>
-  </si>
-  <si>
-    <t>Video como media principal - 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diez  preguntas sobre aspectos destacados de la civilización inca
-</t>
-  </si>
-  <si>
-    <t>Crear fichas para el estudiante y para el profesor
-http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=DI000438&amp;ruta=Buscador</t>
-  </si>
-  <si>
-    <t>Video como media principal - 04</t>
-  </si>
-  <si>
-    <t>Video como media principal - 02</t>
+    <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=DI000438&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=VI002110&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=DI000440&amp;ruta=Buscador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +880,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -943,9 +1011,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1016,7 +1084,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,7 +1092,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,17 +1122,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,9 +1149,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1384,2194 +1455,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.85546875" customWidth="1"/>
-    <col min="20" max="20" width="36" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q1" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" s="46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-    </row>
-    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="27">
-        <v>6</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="22"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="22"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="22"/>
-    </row>
-    <row r="7" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="18">
-        <v>2</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>6</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="U7" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="18">
-        <v>3</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="27">
-        <v>6</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S8" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T8" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="U8" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="18">
-        <v>4</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="27">
-        <v>6</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="S9" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="T9" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="U9" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="18">
-        <v>5</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>6</v>
-      </c>
-      <c r="R10" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S10" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T10" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="U10" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="18">
-        <v>6</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>6</v>
-      </c>
-      <c r="R11" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S11" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T11" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="U11" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="18">
-        <v>7</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="27">
-        <v>6</v>
-      </c>
-      <c r="R12" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S12" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="T12" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="U12" s="27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="18">
-        <v>8</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="27">
-        <v>6</v>
-      </c>
-      <c r="R13" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S13" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T13" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="U13" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="18">
-        <v>9</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="27">
-        <v>6</v>
-      </c>
-      <c r="R14" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S14" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T14" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="U14" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="18">
-        <v>10</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="27">
-        <v>6</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="T15" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="U15" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="18">
-        <v>11</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="43">
-        <v>6</v>
-      </c>
-      <c r="R16" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="S16" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="T16" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="U16" s="22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="22"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="22"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="22"/>
-    </row>
-    <row r="21" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="18">
-        <v>12</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="N21" s="23"/>
-      <c r="O21" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="27">
-        <v>6</v>
-      </c>
-      <c r="R21" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T21" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="U21" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="18">
-        <v>13</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="K22" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="27">
-        <v>6</v>
-      </c>
-      <c r="R22" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="T22" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="U22" s="27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="18">
-        <v>14</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="27">
-        <v>6</v>
-      </c>
-      <c r="R23" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="T23" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="U23" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="22"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="22"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-    </row>
-    <row r="27" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="18">
-        <v>15</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="K27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="27">
-        <v>6</v>
-      </c>
-      <c r="R27" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S27" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T27" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="U27" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="18">
-        <v>16</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="K28" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N28" s="23"/>
-      <c r="O28" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="27">
-        <v>6</v>
-      </c>
-      <c r="R28" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T28" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="U28" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H29" s="18">
-        <v>17</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="K29" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M29" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="N29" s="23"/>
-      <c r="O29" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="P29" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="27">
-        <v>6</v>
-      </c>
-      <c r="R29" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S29" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T29" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="U29" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="18">
-        <v>18</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="K30" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="P30" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="43">
-        <v>6</v>
-      </c>
-      <c r="R30" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="S30" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="T30" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="U30" s="22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="22"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="22"/>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="22"/>
-    </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H34" s="18">
-        <v>19</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M34" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="P34" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="27">
-        <v>6</v>
-      </c>
-      <c r="R34" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S34" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T34" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="U34" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="18">
-        <v>20</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M35" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="27">
-        <v>6</v>
-      </c>
-      <c r="R35" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S35" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T35" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="U35" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="18">
-        <v>21</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="27">
-        <v>6</v>
-      </c>
-      <c r="R36" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="S36" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="T36" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="U36" s="27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="18">
-        <v>22</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N37" s="18"/>
-      <c r="O37" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" s="27">
-        <v>6</v>
-      </c>
-      <c r="R37" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S37" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T37" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="U37" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H38" s="18">
-        <v>23</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" s="27">
-        <v>6</v>
-      </c>
-      <c r="R38" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S38" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T38" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="U38" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H39" s="18">
-        <v>24</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="O39" s="21"/>
-      <c r="P39" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39" s="27">
-        <v>6</v>
-      </c>
-      <c r="R39" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="S39" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="T39" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="U39" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H40" s="18">
-        <v>25</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="27"/>
-    </row>
-    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H41" s="18">
-        <v>26</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="O41" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="P41" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" s="27">
-        <v>6</v>
-      </c>
-      <c r="R41" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S41" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T41" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="U41" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H42" s="18">
-        <v>27</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="18"/>
-      <c r="M42" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="N42" s="23"/>
-      <c r="O42" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="P42" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="27">
-        <v>6</v>
-      </c>
-      <c r="R42" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="S42" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="T42" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="U42" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3612,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4148,7 +2031,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -4268,7 +2151,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -5529,4 +3412,2394 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="51"/>
+      <c r="O1" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+    </row>
+    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>6</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="22"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="22"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="22"/>
+    </row>
+    <row r="7" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="18">
+        <v>2</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>6</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="18">
+        <v>3</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>6</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="18">
+        <v>4</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>6</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="18">
+        <v>5</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>6</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="18">
+        <v>6</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>6</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S11" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="U11" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="18">
+        <v>7</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>6</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="U12" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="18">
+        <v>8</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="23"/>
+      <c r="O13" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>6</v>
+      </c>
+      <c r="R13" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S13" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="U13" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="18">
+        <v>9</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="23"/>
+      <c r="O14" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>6</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="U14" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="18">
+        <v>10</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>6</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="U15" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="18">
+        <v>11</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="22"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="22"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="22"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="22"/>
+    </row>
+    <row r="21" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="18">
+        <v>12</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" s="23"/>
+      <c r="O21" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>6</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="18">
+        <v>13</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="22"/>
+    </row>
+    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="18">
+        <v>14</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="27">
+        <v>6</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="22"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="22"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+    </row>
+    <row r="27" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="18">
+        <v>15</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N27" s="23"/>
+      <c r="O27" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>6</v>
+      </c>
+      <c r="R27" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S27" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T27" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="18">
+        <v>16</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N28" s="23"/>
+      <c r="O28" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="27">
+        <v>6</v>
+      </c>
+      <c r="R28" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S28" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T28" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="U28" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="18">
+        <v>17</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="N29" s="23"/>
+      <c r="O29" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="27">
+        <v>6</v>
+      </c>
+      <c r="R29" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S29" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T29" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="U29" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="18">
+        <v>18</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="22"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="22"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="22"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="22"/>
+    </row>
+    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="18">
+        <v>19</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34" s="23"/>
+      <c r="O34" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="27">
+        <v>6</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S34" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="U34" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="18">
+        <v>20</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35" s="23"/>
+      <c r="O35" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="27">
+        <v>6</v>
+      </c>
+      <c r="R35" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S35" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T35" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="U35" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="22"/>
+    </row>
+    <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" s="18">
+        <v>21</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N37" s="18"/>
+      <c r="O37" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="27">
+        <v>6</v>
+      </c>
+      <c r="R37" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S37" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T37" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="U37" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" s="18">
+        <v>22</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="22"/>
+      <c r="K38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q38" s="27">
+        <v>6</v>
+      </c>
+      <c r="R38" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S38" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T38" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="U38" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="18">
+        <v>23</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="22"/>
+      <c r="K39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="M39" s="23"/>
+      <c r="N39" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="O39" s="21"/>
+      <c r="P39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="27">
+        <v>6</v>
+      </c>
+      <c r="R39" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="S39" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="T39" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="U39" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" s="18">
+        <v>24</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="22"/>
+      <c r="K40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="M40" s="23"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="27"/>
+    </row>
+    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" s="18">
+        <v>25</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="22"/>
+      <c r="K41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="N41" s="18"/>
+      <c r="O41" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="P41" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="27">
+        <v>6</v>
+      </c>
+      <c r="R41" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S41" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T41" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="U41" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H42" s="18">
+        <v>26</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="22"/>
+      <c r="K42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="18"/>
+      <c r="M42" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N42" s="18"/>
+      <c r="O42" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="P42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="27">
+        <v>6</v>
+      </c>
+      <c r="R42" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S42" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="T42" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="U42" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+    </row>
+    <row r="44" spans="1:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Q36" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>